--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43463</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="E8" s="3">
         <v>3100</v>
       </c>
       <c r="F8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3600</v>
       </c>
       <c r="P8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2000</v>
       </c>
       <c r="H9" s="3">
         <v>2000</v>
       </c>
       <c r="I9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2500</v>
       </c>
       <c r="P9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1000</v>
       </c>
       <c r="G10" s="3">
         <v>1000</v>
       </c>
       <c r="H10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1300</v>
       </c>
       <c r="K10" s="3">
         <v>1300</v>
       </c>
       <c r="L10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M10" s="3">
         <v>1200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1100</v>
       </c>
       <c r="P10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,11 @@
       <c r="P12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,84 +1111,90 @@
         <v>3200</v>
       </c>
       <c r="F17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3400</v>
       </c>
       <c r="N17" s="3">
         <v>3400</v>
       </c>
       <c r="O17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>400</v>
       </c>
       <c r="L18" s="3">
+        <v>400</v>
+      </c>
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1223,31 +1256,34 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
@@ -1259,16 +1295,19 @@
         <v>300</v>
       </c>
       <c r="N21" s="3">
+        <v>300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1311,31 +1350,34 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>300</v>
@@ -1347,16 +1389,19 @@
         <v>300</v>
       </c>
       <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1370,11 +1415,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1382,11 +1427,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1399,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>300</v>
       </c>
       <c r="M26" s="3">
         <v>300</v>
       </c>
       <c r="N26" s="3">
+        <v>300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>300</v>
       </c>
       <c r="M27" s="3">
         <v>300</v>
       </c>
       <c r="N27" s="3">
+        <v>300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1575,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1601,11 +1661,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1619,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1751,31 +1820,34 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>300</v>
@@ -1787,16 +1859,19 @@
         <v>300</v>
       </c>
       <c r="N33" s="3">
+        <v>300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,31 +1914,34 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>300</v>
@@ -1875,65 +1953,71 @@
         <v>300</v>
       </c>
       <c r="N35" s="3">
+        <v>300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43463</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1977,43 +2063,46 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,96 +2145,105 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2000</v>
       </c>
       <c r="J44" s="3">
         <v>2000</v>
       </c>
       <c r="K44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L44" s="3">
         <v>1500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1600</v>
       </c>
       <c r="P44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2171,7 +2269,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2188,52 +2286,58 @@
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
         <v>4500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>4500</v>
       </c>
       <c r="P46" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2285,19 +2392,19 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2320,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2461,17 +2580,17 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -2496,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>4500</v>
       </c>
       <c r="P54" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1100</v>
       </c>
       <c r="P57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,8 +2811,8 @@
       <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2708,13 +2841,16 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
@@ -2726,78 +2862,84 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
       </c>
       <c r="F60" s="3">
         <v>900</v>
       </c>
       <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2982,11 @@
       <c r="P61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2854,8 +2999,8 @@
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>24</v>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>24</v>
@@ -2866,8 +3011,8 @@
       <c r="J62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2884,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2972,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1600</v>
       </c>
       <c r="F66" s="3">
         <v>1600</v>
       </c>
       <c r="G66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2100</v>
       </c>
       <c r="P66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,16 +3424,19 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E72" s="3">
         <v>3400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>3500</v>
       </c>
       <c r="F72" s="3">
         <v>3500</v>
@@ -3272,34 +3445,37 @@
         <v>3500</v>
       </c>
       <c r="H72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I72" s="3">
         <v>3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E76" s="3">
         <v>3700</v>
       </c>
       <c r="F76" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G76" s="3">
         <v>3800</v>
       </c>
       <c r="H76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I76" s="3">
         <v>3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,80 +3706,86 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43827</v>
+      </c>
+      <c r="E80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43463</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>300</v>
@@ -3603,16 +3797,19 @@
         <v>300</v>
       </c>
       <c r="N81" s="3">
+        <v>300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,20 +4106,23 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
         <v>100</v>
       </c>
@@ -3914,31 +4130,34 @@
         <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3999,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4104,8 +4333,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>24</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>24</v>
@@ -4113,8 +4342,8 @@
       <c r="J94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4131,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4369,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,121 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3600</v>
       </c>
       <c r="O8" s="3">
         <v>3300</v>
@@ -780,104 +788,122 @@
         <v>3600</v>
       </c>
       <c r="Q8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E9" s="3">
         <v>2200</v>
       </c>
       <c r="F9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2300</v>
       </c>
       <c r="P9" s="3">
         <v>2500</v>
       </c>
       <c r="Q9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>800</v>
       </c>
       <c r="J10" s="3">
         <v>1000</v>
       </c>
       <c r="K10" s="3">
+        <v>800</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1000</v>
       </c>
       <c r="P10" s="3">
         <v>1100</v>
       </c>
       <c r="Q10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +921,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +970,14 @@
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1023,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1076,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1129,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,13 +1151,15 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
         <v>3200</v>
@@ -1114,40 +1168,46 @@
         <v>3200</v>
       </c>
       <c r="G17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1155,46 +1215,52 @@
         <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,8 +1278,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1259,8 +1327,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1268,28 +1342,28 @@
         <v>200</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>300</v>
-      </c>
       <c r="L21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>300</v>
@@ -1298,16 +1372,22 @@
         <v>300</v>
       </c>
       <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1353,8 +1433,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,28 +1448,28 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>300</v>
-      </c>
       <c r="L23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
@@ -1392,21 +1478,27 @@
         <v>300</v>
       </c>
       <c r="O23" s="3">
+        <v>300</v>
+      </c>
+      <c r="P23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1418,26 +1510,26 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1539,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1592,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>300</v>
-      </c>
       <c r="L26" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>300</v>
       </c>
       <c r="N26" s="3">
+        <v>400</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>300</v>
-      </c>
       <c r="L27" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>300</v>
       </c>
       <c r="N27" s="3">
+        <v>400</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,8 +1751,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1664,14 +1786,14 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>-200</v>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>-200</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1682,8 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1857,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1910,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,37 +1963,43 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>300</v>
-      </c>
       <c r="L33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>300</v>
@@ -1862,16 +2008,22 @@
         <v>300</v>
       </c>
       <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,37 +2069,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>300</v>
-      </c>
       <c r="L35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>300</v>
@@ -1956,68 +2114,80 @@
         <v>300</v>
       </c>
       <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2205,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2226,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,102 +2328,120 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1700</v>
       </c>
       <c r="N44" s="3">
         <v>1500</v>
       </c>
       <c r="O44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2272,10 +2470,10 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -2289,55 +2487,67 @@
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,34 +2593,40 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2430,8 +2646,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2699,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2752,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2805,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,23 +2820,23 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -2618,8 +2858,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2911,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F54" s="3">
         <v>5000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>4500</v>
       </c>
       <c r="J54" s="3">
         <v>4900</v>
       </c>
       <c r="K54" s="3">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="L54" s="3">
         <v>4900</v>
       </c>
       <c r="M54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O54" s="3">
         <v>4700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2989,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,60 +3010,68 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>24</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>24</v>
@@ -2814,11 +3082,11 @@
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2844,19 +3112,25 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
-        <v>300</v>
-      </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -2865,86 +3139,98 @@
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1100</v>
       </c>
       <c r="M60" s="3">
         <v>1200</v>
       </c>
       <c r="N60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
@@ -2985,16 +3271,22 @@
       <c r="Q61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>500</v>
+      </c>
+      <c r="S61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -3002,11 +3294,11 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>24</v>
+      <c r="H62" s="3">
+        <v>200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>24</v>
@@ -3014,11 +3306,11 @@
       <c r="K62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3032,8 +3324,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3377,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3430,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3483,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1600</v>
       </c>
       <c r="M66" s="3">
         <v>1700</v>
       </c>
       <c r="N66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3561,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3610,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3663,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3716,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3769,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E72" s="3">
         <v>3600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G72" s="3">
         <v>3400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3500</v>
       </c>
       <c r="H72" s="3">
         <v>3500</v>
       </c>
       <c r="I72" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J72" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K72" s="3">
         <v>3300</v>
       </c>
       <c r="L72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N72" s="3">
         <v>3000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3875,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3928,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3981,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F76" s="3">
         <v>3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>3700</v>
       </c>
       <c r="K76" s="3">
         <v>3600</v>
       </c>
       <c r="L76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>2500</v>
       </c>
       <c r="Q76" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S76" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,89 +4087,101 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>300</v>
-      </c>
       <c r="L81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>300</v>
@@ -3800,16 +4190,22 @@
         <v>300</v>
       </c>
       <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4223,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4272,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4325,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4378,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4431,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4484,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4537,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4615,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4717,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4770,19 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4336,20 +4796,20 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>24</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4363,8 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4848,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4897,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4950,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5003,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5056,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5109,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5162,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,155 +759,164 @@
         <v>3200</v>
       </c>
       <c r="F8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G8" s="3">
         <v>3400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3100</v>
       </c>
       <c r="H8" s="3">
         <v>3100</v>
       </c>
       <c r="I8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3600</v>
       </c>
       <c r="S8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E9" s="3">
         <v>2200</v>
       </c>
       <c r="F9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2000</v>
       </c>
       <c r="K9" s="3">
         <v>2000</v>
       </c>
       <c r="L9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2500</v>
       </c>
       <c r="S9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="3">
         <v>1000</v>
       </c>
       <c r="F10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1000</v>
       </c>
       <c r="J10" s="3">
         <v>1000</v>
       </c>
       <c r="K10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1300</v>
       </c>
       <c r="N10" s="3">
         <v>1300</v>
       </c>
       <c r="O10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1100</v>
       </c>
       <c r="S10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,16 +1179,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3200</v>
       </c>
       <c r="F17" s="3">
         <v>3200</v>
@@ -1174,93 +1201,99 @@
         <v>3200</v>
       </c>
       <c r="I17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3400</v>
       </c>
       <c r="Q17" s="3">
         <v>3400</v>
       </c>
       <c r="R17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>400</v>
       </c>
       <c r="O18" s="3">
+        <v>400</v>
+      </c>
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1333,40 +1367,43 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>300</v>
@@ -1378,16 +1415,19 @@
         <v>300</v>
       </c>
       <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1439,8 +1479,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,31 +1491,31 @@
         <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>300</v>
@@ -1484,24 +1527,27 @@
         <v>300</v>
       </c>
       <c r="Q23" s="3">
+        <v>300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1516,11 +1562,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1528,11 +1574,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>300</v>
       </c>
       <c r="P26" s="3">
         <v>300</v>
       </c>
       <c r="Q26" s="3">
+        <v>300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>300</v>
       </c>
       <c r="P27" s="3">
         <v>300</v>
       </c>
       <c r="Q27" s="3">
+        <v>300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1792,11 +1853,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1969,40 +2039,43 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>300</v>
@@ -2014,16 +2087,19 @@
         <v>300</v>
       </c>
       <c r="Q33" s="3">
+        <v>300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,40 +2151,43 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>300</v>
@@ -2120,74 +2199,80 @@
         <v>300</v>
       </c>
       <c r="Q35" s="3">
+        <v>300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
+        <v>500</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
       </c>
       <c r="K41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2343,105 +2436,111 @@
         <v>1600</v>
       </c>
       <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1900</v>
       </c>
       <c r="F44" s="3">
         <v>1900</v>
       </c>
       <c r="G44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2000</v>
       </c>
       <c r="M44" s="3">
         <v>2000</v>
       </c>
       <c r="N44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O44" s="3">
         <v>1500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1600</v>
       </c>
       <c r="S44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2476,7 +2575,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -2493,61 +2592,67 @@
       <c r="S45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>4500</v>
       </c>
       <c r="S46" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2608,7 +2716,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -2617,19 +2725,19 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2820,26 +2940,26 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>4500</v>
       </c>
       <c r="S54" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3142,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3021,60 +3152,63 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
       </c>
       <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1100</v>
       </c>
       <c r="S57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
@@ -3088,8 +3222,8 @@
       <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3118,8 +3252,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3127,13 +3264,13 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3145,34 +3282,37 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3180,60 +3320,63 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3289,7 +3435,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -3300,8 +3446,8 @@
       <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>24</v>
+      <c r="J62" s="3">
+        <v>200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>24</v>
@@ -3312,8 +3458,8 @@
       <c r="M62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3644,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3498,52 +3656,55 @@
         <v>1400</v>
       </c>
       <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1600</v>
       </c>
       <c r="I66" s="3">
         <v>1600</v>
       </c>
       <c r="J66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2100</v>
       </c>
       <c r="S66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,25 +3946,28 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E72" s="3">
         <v>3800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>3600</v>
       </c>
       <c r="F72" s="3">
         <v>3600</v>
       </c>
       <c r="G72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H72" s="3">
         <v>3400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>3500</v>
       </c>
       <c r="I72" s="3">
         <v>3500</v>
@@ -3802,34 +3976,37 @@
         <v>3500</v>
       </c>
       <c r="K72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L72" s="3">
         <v>3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>3700</v>
       </c>
       <c r="H76" s="3">
         <v>3700</v>
       </c>
       <c r="I76" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J76" s="3">
         <v>3800</v>
       </c>
       <c r="K76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L76" s="3">
         <v>3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,98 +4282,104 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>300</v>
@@ -4196,16 +4391,19 @@
         <v>300</v>
       </c>
       <c r="Q81" s="3">
+        <v>300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,29 +4757,32 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
         <v>100</v>
       </c>
@@ -4573,31 +4790,34 @@
         <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,16 +5003,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4802,8 +5032,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>24</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>24</v>
@@ -4811,8 +5041,8 @@
       <c r="M94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5305,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5115,8 +5361,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,99 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
         <v>3200</v>
@@ -762,161 +766,170 @@
         <v>3200</v>
       </c>
       <c r="G8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H8" s="3">
         <v>3400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3100</v>
       </c>
       <c r="I8" s="3">
         <v>3100</v>
       </c>
       <c r="J8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3600</v>
       </c>
       <c r="T8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2200</v>
       </c>
       <c r="F9" s="3">
         <v>2200</v>
       </c>
       <c r="G9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2000</v>
       </c>
       <c r="L9" s="3">
         <v>2000</v>
       </c>
       <c r="M9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2500</v>
       </c>
       <c r="T9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1000</v>
       </c>
       <c r="F10" s="3">
         <v>1000</v>
       </c>
       <c r="G10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1000</v>
       </c>
       <c r="K10" s="3">
         <v>1000</v>
       </c>
       <c r="L10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1300</v>
       </c>
       <c r="O10" s="3">
         <v>1300</v>
       </c>
       <c r="P10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1100</v>
       </c>
       <c r="T10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,13 +950,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,8 +1066,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1125,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,19 +1206,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3200</v>
       </c>
       <c r="G17" s="3">
         <v>3200</v>
@@ -1204,96 +1231,102 @@
         <v>3200</v>
       </c>
       <c r="J17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>3400</v>
       </c>
       <c r="R17" s="3">
         <v>3400</v>
       </c>
       <c r="S17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>400</v>
       </c>
       <c r="P18" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
       <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,8 +1347,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1370,8 +1404,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1379,34 +1416,34 @@
         <v>300</v>
       </c>
       <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
@@ -1418,16 +1455,19 @@
         <v>300</v>
       </c>
       <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1482,43 +1522,46 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
         <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>300</v>
@@ -1530,27 +1573,30 @@
         <v>300</v>
       </c>
       <c r="R23" s="3">
+        <v>300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1565,11 +1611,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1577,11 +1623,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1594,8 +1640,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,8 +1699,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1659,55 +1711,58 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>300</v>
       </c>
       <c r="Q26" s="3">
         <v>300</v>
       </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1715,55 +1770,58 @@
         <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>300</v>
       </c>
       <c r="Q27" s="3">
         <v>300</v>
       </c>
       <c r="R27" s="3">
+        <v>300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1856,11 +1917,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2053,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2042,8 +2112,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2051,34 +2124,34 @@
         <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>300</v>
@@ -2090,16 +2163,19 @@
         <v>300</v>
       </c>
       <c r="R33" s="3">
+        <v>300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,8 +2230,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2163,34 +2242,34 @@
         <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>300</v>
@@ -2202,77 +2281,83 @@
         <v>300</v>
       </c>
       <c r="R35" s="3">
+        <v>300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
         <v>900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
       </c>
       <c r="L41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M41" s="3">
         <v>500</v>
       </c>
       <c r="N41" s="3">
+        <v>500</v>
+      </c>
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2427,64 +2517,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="E43" s="3">
         <v>1600</v>
       </c>
       <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2492,55 +2588,58 @@
         <v>2000</v>
       </c>
       <c r="E44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1900</v>
       </c>
       <c r="G44" s="3">
         <v>1900</v>
       </c>
       <c r="H44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2000</v>
       </c>
       <c r="N44" s="3">
         <v>2000</v>
       </c>
       <c r="O44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P44" s="3">
         <v>1500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1600</v>
       </c>
       <c r="T44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2578,7 +2677,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2595,64 +2694,70 @@
       <c r="T45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>4500</v>
       </c>
       <c r="T46" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,19 +2812,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -2728,19 +2836,19 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2763,8 +2871,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2930,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,38 +3048,41 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -2987,8 +3107,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E54" s="3">
         <v>5600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>4500</v>
       </c>
       <c r="T54" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,75 +3273,79 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1100</v>
       </c>
       <c r="T57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
@@ -3225,8 +3359,8 @@
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3255,25 +3389,28 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3285,101 +3422,107 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
       </c>
       <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
       </c>
       <c r="J60" s="3">
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -3423,8 +3566,11 @@
       <c r="T61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3438,7 +3584,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3449,8 +3595,8 @@
       <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>24</v>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>24</v>
@@ -3461,8 +3607,8 @@
       <c r="N62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
         <v>1400</v>
       </c>
       <c r="F66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1600</v>
       </c>
       <c r="J66" s="3">
         <v>1600</v>
       </c>
       <c r="K66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2100</v>
       </c>
       <c r="T66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,28 +4120,31 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E72" s="3">
         <v>4000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3600</v>
       </c>
       <c r="G72" s="3">
         <v>3600</v>
       </c>
       <c r="H72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I72" s="3">
         <v>3400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3500</v>
       </c>
       <c r="J72" s="3">
         <v>3500</v>
@@ -3979,34 +4153,37 @@
         <v>3500</v>
       </c>
       <c r="L72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M72" s="3">
         <v>3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3700</v>
       </c>
       <c r="I76" s="3">
         <v>3700</v>
       </c>
       <c r="J76" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K76" s="3">
         <v>3800</v>
       </c>
       <c r="L76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M76" s="3">
         <v>3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,69 +4474,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4355,34 +4550,34 @@
         <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>300</v>
@@ -4394,16 +4589,19 @@
         <v>300</v>
       </c>
       <c r="R81" s="3">
+        <v>300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4622,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4480,8 +4679,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,32 +4974,35 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
@@ -4793,31 +5010,34 @@
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5058,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4894,8 +5115,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5233,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5017,8 +5247,8 @@
       <c r="E94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5035,8 +5265,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>24</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>24</v>
@@ -5044,8 +5274,8 @@
       <c r="N94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5062,8 +5292,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,8 +5551,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5364,8 +5610,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,105 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3200</v>
       </c>
       <c r="F8" s="3">
         <v>3200</v>
@@ -769,167 +772,176 @@
         <v>3200</v>
       </c>
       <c r="H8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I8" s="3">
         <v>3400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3100</v>
       </c>
       <c r="J8" s="3">
         <v>3100</v>
       </c>
       <c r="K8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3600</v>
       </c>
       <c r="U8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2200</v>
       </c>
       <c r="G9" s="3">
         <v>2200</v>
       </c>
       <c r="H9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2000</v>
       </c>
       <c r="M9" s="3">
         <v>2000</v>
       </c>
       <c r="N9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2500</v>
       </c>
       <c r="U9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1000</v>
       </c>
       <c r="G10" s="3">
         <v>1000</v>
       </c>
       <c r="H10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1000</v>
       </c>
       <c r="L10" s="3">
         <v>1000</v>
       </c>
       <c r="M10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1300</v>
       </c>
       <c r="P10" s="3">
         <v>1300</v>
       </c>
       <c r="Q10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1000</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1100</v>
       </c>
       <c r="U10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1010,8 +1023,11 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,22 +1232,23 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3200</v>
       </c>
       <c r="H17" s="3">
         <v>3200</v>
@@ -1234,99 +1260,105 @@
         <v>3200</v>
       </c>
       <c r="K17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>3400</v>
       </c>
       <c r="S17" s="3">
         <v>3400</v>
       </c>
       <c r="T17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>400</v>
       </c>
       <c r="Q18" s="3">
+        <v>400</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1348,13 +1380,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1407,46 +1440,49 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
       </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>300</v>
@@ -1458,16 +1494,19 @@
         <v>300</v>
       </c>
       <c r="S21" s="3">
+        <v>300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,46 +1564,49 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>200</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>300</v>
@@ -1576,30 +1618,33 @@
         <v>300</v>
       </c>
       <c r="S23" s="3">
+        <v>300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1614,11 +1659,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1626,11 +1671,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1643,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>300</v>
       </c>
       <c r="R26" s="3">
         <v>300</v>
       </c>
       <c r="S26" s="3">
+        <v>300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>300</v>
       </c>
       <c r="R27" s="3">
         <v>300</v>
       </c>
       <c r="S27" s="3">
+        <v>300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1879,31 +1936,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1920,11 +1980,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1938,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,13 +2122,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2115,46 +2184,49 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
       <c r="O33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>300</v>
@@ -2166,16 +2238,19 @@
         <v>300</v>
       </c>
       <c r="S33" s="3">
+        <v>300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,46 +2308,49 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
       <c r="O35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>300</v>
@@ -2284,80 +2362,86 @@
         <v>300</v>
       </c>
       <c r="S35" s="3">
+        <v>300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>500</v>
       </c>
       <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>600</v>
       </c>
       <c r="M41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N41" s="3">
         <v>500</v>
       </c>
       <c r="O41" s="3">
+        <v>500</v>
+      </c>
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1600</v>
       </c>
       <c r="F43" s="3">
         <v>1600</v>
       </c>
       <c r="G43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2591,55 +2686,58 @@
         <v>2000</v>
       </c>
       <c r="F44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G44" s="3">
         <v>2100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1900</v>
       </c>
       <c r="H44" s="3">
         <v>1900</v>
       </c>
       <c r="I44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2000</v>
       </c>
       <c r="O44" s="3">
         <v>2000</v>
       </c>
       <c r="P44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1600</v>
       </c>
       <c r="U44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2680,7 +2778,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2697,67 +2795,73 @@
       <c r="U45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E46" s="3">
         <v>5600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>4500</v>
       </c>
       <c r="U46" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,22 +2919,25 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -2839,19 +2946,19 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2874,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2933,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3060,32 +3179,32 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -3110,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4200</v>
-      </c>
-      <c r="T54" s="3">
-        <v>4500</v>
       </c>
       <c r="U54" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,81 +3403,85 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1100</v>
       </c>
       <c r="U57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
@@ -3362,8 +3495,8 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3392,28 +3525,31 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
@@ -3425,107 +3561,113 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
       </c>
       <c r="T59" s="3">
         <v>400</v>
       </c>
       <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>700</v>
       </c>
       <c r="F60" s="3">
         <v>700</v>
       </c>
       <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -3569,8 +3711,11 @@
       <c r="U61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3587,7 +3732,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3598,8 +3743,8 @@
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>24</v>
+      <c r="L62" s="3">
+        <v>200</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>24</v>
@@ -3610,8 +3755,8 @@
       <c r="O62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3628,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1400</v>
       </c>
       <c r="F66" s="3">
         <v>1400</v>
       </c>
       <c r="G66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1600</v>
       </c>
       <c r="K66" s="3">
         <v>1600</v>
       </c>
       <c r="L66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2100</v>
       </c>
       <c r="U66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,8 +4293,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4132,22 +4305,22 @@
         <v>4200</v>
       </c>
       <c r="E72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F72" s="3">
         <v>4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3600</v>
       </c>
       <c r="H72" s="3">
         <v>3600</v>
       </c>
       <c r="I72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J72" s="3">
         <v>3400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3500</v>
       </c>
       <c r="K72" s="3">
         <v>3500</v>
@@ -4156,34 +4329,37 @@
         <v>3500</v>
       </c>
       <c r="M72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N72" s="3">
         <v>3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3700</v>
       </c>
       <c r="J76" s="3">
         <v>3700</v>
       </c>
       <c r="K76" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="L76" s="3">
         <v>3800</v>
       </c>
       <c r="M76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N76" s="3">
         <v>3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,110 +4665,116 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
       <c r="O81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>300</v>
@@ -4592,16 +4786,19 @@
         <v>300</v>
       </c>
       <c r="S81" s="3">
+        <v>300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4682,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,35 +5190,38 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
@@ -5013,31 +5229,34 @@
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5118,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,19 +5462,22 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>24</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5268,8 +5497,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>24</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>24</v>
@@ -5277,8 +5506,8 @@
       <c r="O94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5295,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5613,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
         <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E8" s="3">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="F8" s="3">
         <v>3200</v>
       </c>
       <c r="G8" s="3">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="H8" s="3">
         <v>3200</v>
       </c>
       <c r="I8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3600</v>
       </c>
       <c r="T8" s="3">
         <v>3300</v>
@@ -814,134 +822,152 @@
         <v>3600</v>
       </c>
       <c r="V8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="W8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E9" s="3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="F9" s="3">
         <v>2100</v>
       </c>
       <c r="G9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I9" s="3">
         <v>2200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2100</v>
       </c>
       <c r="J9" s="3">
         <v>2200</v>
       </c>
       <c r="K9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2300</v>
       </c>
       <c r="U9" s="3">
         <v>2500</v>
       </c>
       <c r="V9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>1100</v>
       </c>
       <c r="G10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>800</v>
       </c>
       <c r="O10" s="3">
         <v>1000</v>
       </c>
       <c r="P10" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1000</v>
       </c>
       <c r="U10" s="3">
         <v>1100</v>
       </c>
       <c r="V10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +990,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1026,8 +1054,14 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1122,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1190,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1258,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,28 +1285,30 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3200</v>
       </c>
       <c r="J17" s="3">
         <v>3200</v>
@@ -1263,40 +1317,46 @@
         <v>3200</v>
       </c>
       <c r="L17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1304,61 +1364,67 @@
         <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,20 +1447,22 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1511,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1452,43 +1526,43 @@
         <v>100</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>100</v>
       </c>
       <c r="I21" s="3">
         <v>200</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
+        <v>200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>300</v>
-      </c>
       <c r="Q21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>300</v>
@@ -1497,16 +1571,22 @@
         <v>300</v>
       </c>
       <c r="T21" s="3">
+        <v>300</v>
+      </c>
+      <c r="U21" s="3">
+        <v>300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1567,8 +1647,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1576,43 +1662,43 @@
         <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>300</v>
-      </c>
       <c r="Q23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>300</v>
@@ -1621,16 +1707,22 @@
         <v>300</v>
       </c>
       <c r="T23" s="3">
+        <v>300</v>
+      </c>
+      <c r="U23" s="3">
+        <v>300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1638,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1662,26 +1754,26 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1691,8 +1783,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,8 +1851,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1762,61 +1866,67 @@
         <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>300</v>
-      </c>
       <c r="Q26" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>300</v>
       </c>
       <c r="S26" s="3">
+        <v>400</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1824,61 +1934,67 @@
         <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>300</v>
-      </c>
       <c r="Q27" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>300</v>
       </c>
       <c r="S27" s="3">
+        <v>400</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +2055,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1965,11 +2087,11 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1983,14 +2105,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>-200</v>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>-200</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2001,8 +2123,14 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,19 +2259,25 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2187,8 +2327,14 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2196,43 +2342,43 @@
         <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>300</v>
-      </c>
       <c r="Q33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>300</v>
@@ -2241,16 +2387,22 @@
         <v>300</v>
       </c>
       <c r="T33" s="3">
+        <v>300</v>
+      </c>
+      <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2463,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2320,43 +2478,43 @@
         <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>300</v>
-      </c>
       <c r="Q35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>300</v>
@@ -2365,83 +2523,95 @@
         <v>300</v>
       </c>
       <c r="T35" s="3">
+        <v>300</v>
+      </c>
+      <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2660,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,75 +2792,87 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E44" s="3">
         <v>2000</v>
@@ -2689,55 +2881,61 @@
         <v>2000</v>
       </c>
       <c r="G44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="3">
         <v>2100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>1700</v>
       </c>
       <c r="S44" s="3">
         <v>1500</v>
       </c>
       <c r="T44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V44" s="3">
         <v>2000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2781,10 +2979,10 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
@@ -2798,70 +2996,82 @@
       <c r="V45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="E46" s="3">
         <v>5600</v>
       </c>
       <c r="F46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H46" s="3">
         <v>5100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,49 +3132,55 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
-        <v>400</v>
-      </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
       </c>
       <c r="K48" s="3">
+        <v>400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>400</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
-      </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2984,8 +3200,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3268,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3404,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3182,35 +3422,35 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -3232,8 +3472,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3540,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F54" s="3">
         <v>6300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4500</v>
       </c>
       <c r="O54" s="3">
         <v>4900</v>
       </c>
       <c r="P54" s="3">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="Q54" s="3">
         <v>4900</v>
       </c>
       <c r="R54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="T54" s="3">
         <v>4700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,81 +3664,89 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>600</v>
+      </c>
+      <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3486,8 +3754,8 @@
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>24</v>
@@ -3498,11 +3766,11 @@
       <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3528,34 +3796,40 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3564,96 +3838,108 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1100</v>
       </c>
       <c r="R60" s="3">
         <v>1200</v>
       </c>
       <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,19 +3947,19 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
@@ -3714,13 +4000,19 @@
       <c r="V61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>500</v>
+      </c>
+      <c r="X61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3735,10 +4027,10 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3746,11 +4038,11 @@
       <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>24</v>
+      <c r="M62" s="3">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>200</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>24</v>
@@ -3758,11 +4050,11 @@
       <c r="P62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3776,8 +4068,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4272,14 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3971,61 +4287,67 @@
         <v>1800</v>
       </c>
       <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1600</v>
       </c>
       <c r="R66" s="3">
         <v>1700</v>
       </c>
       <c r="S66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4638,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F72" s="3">
         <v>4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>4000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>3500</v>
       </c>
       <c r="M72" s="3">
         <v>3500</v>
       </c>
       <c r="N72" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="O72" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="P72" s="3">
         <v>3300</v>
       </c>
       <c r="Q72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S72" s="3">
         <v>3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>2400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>2100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>2300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4910,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G76" s="3">
         <v>4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>3700</v>
       </c>
       <c r="P76" s="3">
         <v>3600</v>
       </c>
       <c r="Q76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S76" s="3">
         <v>3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>2500</v>
       </c>
       <c r="V76" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X76" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +5046,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4744,43 +5134,43 @@
         <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>300</v>
-      </c>
       <c r="Q81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>300</v>
@@ -4789,16 +5179,22 @@
         <v>300</v>
       </c>
       <c r="T81" s="3">
+        <v>300</v>
+      </c>
+      <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5217,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5281,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5621,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5719,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5783,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5919,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5500,20 +5960,20 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>24</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5527,8 +5987,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6285,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,8 +6353,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6421,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3200</v>
       </c>
       <c r="I8" s="3">
         <v>3200</v>
@@ -789,185 +793,194 @@
         <v>3200</v>
       </c>
       <c r="K8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L8" s="3">
         <v>3400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3100</v>
       </c>
       <c r="M8" s="3">
         <v>3100</v>
       </c>
       <c r="N8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O8" s="3">
         <v>3500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3300</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3600</v>
       </c>
       <c r="X8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2200</v>
       </c>
       <c r="J9" s="3">
         <v>2200</v>
       </c>
       <c r="K9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2000</v>
       </c>
       <c r="P9" s="3">
         <v>2000</v>
       </c>
       <c r="Q9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2500</v>
       </c>
       <c r="X9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1000</v>
       </c>
       <c r="J10" s="3">
         <v>1000</v>
       </c>
       <c r="K10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1000</v>
       </c>
       <c r="O10" s="3">
         <v>1000</v>
       </c>
       <c r="P10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1300</v>
       </c>
       <c r="S10" s="3">
         <v>1300</v>
       </c>
       <c r="T10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1000</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1100</v>
       </c>
       <c r="X10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1005,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1060,8 +1074,11 @@
       <c r="X12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,8 +1216,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1264,8 +1287,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,31 +1313,32 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3000</v>
       </c>
       <c r="F17" s="3">
         <v>3000</v>
       </c>
       <c r="G17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3200</v>
       </c>
       <c r="K17" s="3">
         <v>3200</v>
@@ -1323,108 +1350,114 @@
         <v>3200</v>
       </c>
       <c r="N17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>3400</v>
       </c>
       <c r="V17" s="3">
         <v>3400</v>
       </c>
       <c r="W17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>400</v>
       </c>
       <c r="T18" s="3">
+        <v>400</v>
+      </c>
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
       <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1449,8 +1482,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1461,11 +1495,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1517,55 +1551,58 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>300</v>
       </c>
       <c r="I21" s="3">
+        <v>300</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
         <v>300</v>
@@ -1577,16 +1614,19 @@
         <v>300</v>
       </c>
       <c r="V21" s="3">
+        <v>300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
       <c r="X21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1653,55 +1693,58 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>200</v>
       </c>
       <c r="I23" s="3">
         <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>300</v>
@@ -1713,16 +1756,19 @@
         <v>300</v>
       </c>
       <c r="V23" s="3">
+        <v>300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1736,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1760,11 +1806,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1772,11 +1818,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1789,8 +1835,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1857,144 +1906,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>200</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>300</v>
       </c>
       <c r="U26" s="3">
         <v>300</v>
       </c>
       <c r="V26" s="3">
+        <v>300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>200</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>300</v>
       </c>
       <c r="U27" s="3">
         <v>300</v>
       </c>
       <c r="V27" s="3">
+        <v>300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2061,8 +2119,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2093,8 +2154,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2111,11 +2172,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2129,8 +2190,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2261,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,8 +2332,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2277,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2333,55 +2403,58 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>200</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>300</v>
@@ -2393,16 +2466,19 @@
         <v>300</v>
       </c>
       <c r="V33" s="3">
+        <v>300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>100</v>
-      </c>
       <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,55 +2545,58 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>200</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>300</v>
@@ -2529,89 +2608,95 @@
         <v>300</v>
       </c>
       <c r="V35" s="3">
+        <v>300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>100</v>
-      </c>
       <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2721,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2748,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>500</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>600</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
       <c r="P41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>500</v>
       </c>
       <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2798,84 +2888,90 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1600</v>
       </c>
       <c r="I43" s="3">
         <v>1600</v>
       </c>
       <c r="J43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2000</v>
       </c>
       <c r="F44" s="3">
         <v>2000</v>
@@ -2887,55 +2983,58 @@
         <v>2000</v>
       </c>
       <c r="I44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J44" s="3">
         <v>2100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1900</v>
       </c>
       <c r="K44" s="3">
         <v>1900</v>
       </c>
       <c r="L44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2000</v>
       </c>
       <c r="R44" s="3">
         <v>2000</v>
       </c>
       <c r="S44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T44" s="3">
         <v>1500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2000</v>
-      </c>
-      <c r="W44" s="3">
-        <v>1600</v>
       </c>
       <c r="X44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2985,7 +3084,7 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
@@ -3002,76 +3101,82 @@
       <c r="X45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>4500</v>
       </c>
       <c r="X46" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,8 +3243,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3147,22 +3255,22 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
         <v>400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3171,19 +3279,19 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3206,8 +3314,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3385,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3456,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3527,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3428,32 +3548,32 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3478,8 +3598,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3669,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4200</v>
-      </c>
-      <c r="W54" s="3">
-        <v>4500</v>
       </c>
       <c r="X54" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3769,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,76 +3796,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1100</v>
       </c>
       <c r="X57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3746,19 +3880,19 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>24</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>24</v>
@@ -3772,8 +3906,8 @@
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3802,8 +3936,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3814,25 +3951,25 @@
         <v>400</v>
       </c>
       <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -3844,107 +3981,113 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
       </c>
       <c r="U59" s="3">
+        <v>600</v>
+      </c>
+      <c r="V59" s="3">
         <v>500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
       </c>
       <c r="X59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>700</v>
       </c>
       <c r="I60" s="3">
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>900</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
       </c>
       <c r="O60" s="3">
+        <v>900</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
@@ -3953,16 +4096,16 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
@@ -4006,16 +4149,19 @@
       <c r="X61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4033,7 +4179,7 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -4044,8 +4190,8 @@
       <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>24</v>
+      <c r="O62" s="3">
+        <v>200</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>24</v>
@@ -4056,8 +4202,8 @@
       <c r="R62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4074,8 +4220,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4291,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4210,8 +4362,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4433,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1400</v>
       </c>
       <c r="I66" s="3">
         <v>1400</v>
       </c>
       <c r="J66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1600</v>
       </c>
       <c r="N66" s="3">
         <v>1600</v>
       </c>
       <c r="O66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
-      </c>
-      <c r="W66" s="3">
-        <v>2100</v>
       </c>
       <c r="X66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4533,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4602,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4673,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4744,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,40 +4815,43 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E72" s="3">
         <v>4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4200</v>
       </c>
       <c r="G72" s="3">
         <v>4200</v>
       </c>
       <c r="H72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I72" s="3">
         <v>4000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3600</v>
       </c>
       <c r="K72" s="3">
         <v>3600</v>
       </c>
       <c r="L72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M72" s="3">
         <v>3400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3500</v>
       </c>
       <c r="N72" s="3">
         <v>3500</v>
@@ -4686,34 +4860,37 @@
         <v>3500</v>
       </c>
       <c r="P72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4957,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5028,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5099,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>4700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>4500</v>
       </c>
       <c r="F76" s="3">
         <v>4500</v>
       </c>
       <c r="G76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>3700</v>
       </c>
       <c r="M76" s="3">
         <v>3700</v>
       </c>
       <c r="N76" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="O76" s="3">
         <v>3800</v>
       </c>
       <c r="P76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,128 +5241,134 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>200</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>300</v>
@@ -5185,16 +5380,19 @@
         <v>300</v>
       </c>
       <c r="V81" s="3">
+        <v>300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>100</v>
-      </c>
       <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5417,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5287,8 +5486,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5557,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5628,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5699,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5770,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,44 +5841,47 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
       <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
@@ -5672,31 +5889,34 @@
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
         <v>100</v>
       </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +5941,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5789,8 +6010,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6081,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6152,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5966,8 +6196,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>24</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>24</v>
@@ -5975,8 +6205,8 @@
       <c r="R94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5993,8 +6223,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6252,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6321,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6392,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6463,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,22 +6534,25 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -6314,8 +6560,8 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6359,8 +6605,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6676,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>100</v>
-      </c>
       <c r="V102" s="3">
         <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,175 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4200</v>
       </c>
       <c r="I8" s="3">
         <v>3200</v>
       </c>
       <c r="J8" s="3">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="K8" s="3">
         <v>3200</v>
       </c>
       <c r="L8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3900</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3600</v>
       </c>
       <c r="W8" s="3">
         <v>3300</v>
@@ -835,152 +842,170 @@
         <v>3600</v>
       </c>
       <c r="Y8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Z8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="E9" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F9" s="3">
         <v>2300</v>
       </c>
       <c r="G9" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="H9" s="3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="I9" s="3">
         <v>2100</v>
       </c>
       <c r="J9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L9" s="3">
         <v>2200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2100</v>
       </c>
       <c r="M9" s="3">
         <v>2200</v>
       </c>
       <c r="N9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2100</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2300</v>
       </c>
       <c r="X9" s="3">
         <v>2500</v>
       </c>
       <c r="Y9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
       </c>
       <c r="F10" s="3">
+        <v>800</v>
+      </c>
+      <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1200</v>
       </c>
       <c r="I10" s="3">
         <v>1100</v>
       </c>
       <c r="J10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>800</v>
       </c>
       <c r="R10" s="3">
         <v>1000</v>
       </c>
       <c r="S10" s="3">
+        <v>800</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
-      </c>
-      <c r="V10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1000</v>
       </c>
       <c r="X10" s="3">
         <v>1100</v>
       </c>
       <c r="Y10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1006,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1077,8 +1104,14 @@
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1148,8 +1181,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1157,22 +1196,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1219,8 +1258,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1290,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1314,37 +1365,39 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E17" s="3">
         <v>3200</v>
       </c>
       <c r="F17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3200</v>
       </c>
       <c r="M17" s="3">
         <v>3200</v>
@@ -1353,48 +1406,54 @@
         <v>3200</v>
       </c>
       <c r="O17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1403,61 +1462,67 @@
         <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>200</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1483,8 +1548,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1498,14 +1565,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1554,61 +1621,67 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>200</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
+        <v>200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>300</v>
-      </c>
       <c r="T21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
         <v>300</v>
@@ -1617,16 +1690,22 @@
         <v>300</v>
       </c>
       <c r="W21" s="3">
+        <v>300</v>
+      </c>
+      <c r="X21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1696,61 +1775,67 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>300</v>
-      </c>
       <c r="T23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
         <v>300</v>
@@ -1759,21 +1844,27 @@
         <v>300</v>
       </c>
       <c r="W23" s="3">
+        <v>300</v>
+      </c>
+      <c r="X23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1785,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1809,26 +1900,26 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1838,8 +1929,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1909,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>300</v>
-      </c>
       <c r="T26" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>300</v>
       </c>
       <c r="V26" s="3">
+        <v>400</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>300</v>
-      </c>
       <c r="T27" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>300</v>
       </c>
       <c r="V27" s="3">
+        <v>400</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2122,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2157,11 +2278,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2175,14 +2296,14 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>-200</v>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
+      <c r="V29" s="3">
+        <v>-200</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2193,8 +2314,14 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2335,8 +2468,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2350,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2406,61 +2545,67 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>300</v>
-      </c>
       <c r="T33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>300</v>
@@ -2469,16 +2614,22 @@
         <v>300</v>
       </c>
       <c r="W33" s="3">
+        <v>300</v>
+      </c>
+      <c r="X33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2548,61 +2699,67 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>300</v>
-      </c>
       <c r="T35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>300</v>
@@ -2611,92 +2768,104 @@
         <v>300</v>
       </c>
       <c r="W35" s="3">
+        <v>300</v>
+      </c>
+      <c r="X35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2722,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2749,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
-      </c>
-      <c r="W41" s="3">
-        <v>200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2891,93 +3070,105 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2000</v>
       </c>
       <c r="H44" s="3">
         <v>2000</v>
@@ -2986,63 +3177,69 @@
         <v>2000</v>
       </c>
       <c r="J44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L44" s="3">
         <v>2100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2000</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1700</v>
       </c>
       <c r="V44" s="3">
         <v>1500</v>
       </c>
       <c r="W44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y44" s="3">
         <v>2000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3087,10 +3284,10 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
@@ -3104,79 +3301,91 @@
       <c r="Y45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F46" s="3">
         <v>5000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>5900</v>
       </c>
       <c r="H46" s="3">
         <v>5600</v>
       </c>
       <c r="I46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K46" s="3">
         <v>5100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3246,58 +3455,64 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
-        <v>400</v>
-      </c>
       <c r="L48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>400</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
+        <v>400</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
-      </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3317,8 +3532,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3388,8 +3609,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3459,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3530,13 +3763,19 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3551,35 +3790,35 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3601,8 +3840,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3672,8 +3917,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3681,70 +3932,76 @@
         <v>5300</v>
       </c>
       <c r="E54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G54" s="3">
         <v>6500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>4900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>4500</v>
       </c>
       <c r="R54" s="3">
         <v>4900</v>
       </c>
       <c r="S54" s="3">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="T54" s="3">
         <v>4900</v>
       </c>
       <c r="U54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="V54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="W54" s="3">
         <v>4700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>4200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>4500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3770,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3797,99 +4056,107 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>700</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
       </c>
       <c r="U57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
+        <v>600</v>
+      </c>
+      <c r="X57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3897,8 +4164,8 @@
       <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>24</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -3909,11 +4176,11 @@
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3939,8 +4206,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3948,34 +4221,34 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>400</v>
       </c>
       <c r="G59" s="3">
+        <v>400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -3984,34 +4257,40 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4019,70 +4298,76 @@
         <v>700</v>
       </c>
       <c r="E60" s="3">
+        <v>900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1100</v>
       </c>
       <c r="U60" s="3">
         <v>1200</v>
       </c>
       <c r="V60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4090,28 +4375,28 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>600</v>
       </c>
       <c r="K61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
@@ -4152,22 +4437,28 @@
       <c r="Y61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4182,10 +4473,10 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -4193,11 +4484,11 @@
       <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>24</v>
+      <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>200</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>24</v>
@@ -4205,11 +4496,11 @@
       <c r="S62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4223,8 +4514,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4294,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4365,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4436,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>1800</v>
       </c>
       <c r="H66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1600</v>
       </c>
       <c r="U66" s="3">
         <v>1700</v>
       </c>
       <c r="V66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4534,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4605,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4676,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4747,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4818,8 +5159,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4827,70 +5174,76 @@
         <v>4300</v>
       </c>
       <c r="E72" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F72" s="3">
         <v>4300</v>
       </c>
       <c r="G72" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I72" s="3">
         <v>4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>3500</v>
       </c>
       <c r="P72" s="3">
         <v>3500</v>
       </c>
       <c r="Q72" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="R72" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="S72" s="3">
         <v>3300</v>
       </c>
       <c r="T72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="V72" s="3">
         <v>3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>2700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>2100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4960,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5031,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5102,8 +5467,14 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5111,70 +5482,76 @@
         <v>4600</v>
       </c>
       <c r="E76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>3600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>3700</v>
       </c>
       <c r="S76" s="3">
         <v>3600</v>
       </c>
       <c r="T76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V76" s="3">
         <v>3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2600</v>
-      </c>
-      <c r="W76" s="3">
-        <v>2400</v>
-      </c>
-      <c r="X76" s="3">
-        <v>2500</v>
       </c>
       <c r="Y76" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5244,137 +5621,149 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>300</v>
-      </c>
       <c r="T81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>300</v>
@@ -5383,16 +5772,22 @@
         <v>300</v>
       </c>
       <c r="W81" s="3">
+        <v>300</v>
+      </c>
+      <c r="X81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5418,8 +5813,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5489,8 +5886,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5560,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5631,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5702,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5773,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5844,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5942,8 +6381,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6013,8 +6454,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6084,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6155,8 +6608,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6199,20 +6658,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>24</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6226,8 +6685,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6253,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6324,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6395,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6466,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6537,37 +7022,43 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-500</v>
+      <c r="D100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>24</v>
+      <c r="F100" s="3">
+        <v>-500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6608,8 +7099,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6679,75 +7176,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,146 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3200</v>
       </c>
       <c r="L8" s="3">
         <v>3200</v>
@@ -809,49 +813,52 @@
         <v>3200</v>
       </c>
       <c r="N8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O8" s="3">
         <v>3400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3100</v>
       </c>
       <c r="P8" s="3">
         <v>3100</v>
       </c>
       <c r="Q8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R8" s="3">
         <v>3500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3300</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>3600</v>
       </c>
       <c r="AA8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,153 +866,159 @@
         <v>2500</v>
       </c>
       <c r="E9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2200</v>
       </c>
       <c r="M9" s="3">
         <v>2200</v>
       </c>
       <c r="N9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2000</v>
       </c>
       <c r="S9" s="3">
         <v>2000</v>
       </c>
       <c r="T9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U9" s="3">
         <v>2400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2300</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>2500</v>
       </c>
       <c r="AA9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1000</v>
       </c>
       <c r="M10" s="3">
         <v>1000</v>
       </c>
       <c r="N10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1000</v>
       </c>
       <c r="R10" s="3">
         <v>1000</v>
       </c>
       <c r="S10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1300</v>
       </c>
       <c r="V10" s="3">
         <v>1300</v>
       </c>
       <c r="W10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1100</v>
       </c>
       <c r="AA10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1213,8 +1233,8 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,40 +1393,41 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3000</v>
       </c>
       <c r="I17" s="3">
         <v>3000</v>
       </c>
       <c r="J17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3200</v>
       </c>
       <c r="N17" s="3">
         <v>3200</v>
@@ -1412,40 +1439,43 @@
         <v>3200</v>
       </c>
       <c r="Q17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>3400</v>
       </c>
       <c r="Y17" s="3">
         <v>3400</v>
       </c>
       <c r="Z17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AA17" s="3">
         <v>3500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1453,76 +1483,79 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>400</v>
       </c>
       <c r="W18" s="3">
+        <v>400</v>
+      </c>
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>100</v>
-      </c>
       <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,8 +1583,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1571,11 +1605,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1627,8 +1661,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1636,55 +1673,55 @@
         <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
       </c>
       <c r="L21" s="3">
+        <v>300</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
         <v>300</v>
@@ -1696,16 +1733,19 @@
         <v>300</v>
       </c>
       <c r="Y21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>100</v>
-      </c>
       <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1781,8 +1821,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1790,55 +1833,55 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>200</v>
       </c>
       <c r="L23" s="3">
         <v>200</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>300</v>
@@ -1850,16 +1893,19 @@
         <v>300</v>
       </c>
       <c r="Y23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>100</v>
-      </c>
       <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1867,7 +1913,7 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1882,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1906,11 +1952,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1918,11 +1964,11 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2012,8 +2061,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2021,76 +2073,79 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
-      </c>
-      <c r="W26" s="3">
-        <v>300</v>
       </c>
       <c r="X26" s="3">
         <v>300</v>
       </c>
       <c r="Y26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>100</v>
-      </c>
       <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2098,76 +2153,79 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>300</v>
       </c>
       <c r="X27" s="3">
         <v>300</v>
       </c>
       <c r="Y27" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>100</v>
-      </c>
       <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2284,8 +2345,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2302,11 +2363,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-200</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2541,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2495,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2551,8 +2621,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2560,55 +2633,55 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>200</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>300</v>
@@ -2620,16 +2693,19 @@
         <v>300</v>
       </c>
       <c r="Y33" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>100</v>
-      </c>
       <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,8 +2781,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2714,55 +2793,55 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>200</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>300</v>
@@ -2774,98 +2853,104 @@
         <v>300</v>
       </c>
       <c r="Y35" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>100</v>
-      </c>
       <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>500</v>
       </c>
       <c r="O41" s="3">
         <v>500</v>
       </c>
       <c r="P41" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q41" s="3">
         <v>900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>600</v>
       </c>
       <c r="R41" s="3">
         <v>600</v>
       </c>
       <c r="S41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
       <c r="U41" s="3">
+        <v>500</v>
+      </c>
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,102 +3166,108 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1400</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
       </c>
       <c r="I43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1600</v>
       </c>
       <c r="L43" s="3">
         <v>1600</v>
       </c>
       <c r="M43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2000</v>
       </c>
       <c r="I44" s="3">
         <v>2000</v>
@@ -3183,66 +3279,69 @@
         <v>2000</v>
       </c>
       <c r="L44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M44" s="3">
         <v>2100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1900</v>
       </c>
       <c r="N44" s="3">
         <v>1900</v>
       </c>
       <c r="O44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P44" s="3">
         <v>1800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1900</v>
-      </c>
-      <c r="T44" s="3">
-        <v>2000</v>
       </c>
       <c r="U44" s="3">
         <v>2000</v>
       </c>
       <c r="V44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W44" s="3">
         <v>1500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>1600</v>
       </c>
       <c r="AA44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3290,7 +3389,7 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
@@ -3307,8 +3406,11 @@
       <c r="AA45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3316,76 +3418,79 @@
         <v>4900</v>
       </c>
       <c r="E46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F46" s="3">
         <v>5400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4200</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>4500</v>
       </c>
       <c r="AA46" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,8 +3566,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3470,7 +3578,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3479,22 +3587,22 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>400</v>
@@ -3503,19 +3611,19 @@
         <v>400</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3538,8 +3646,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,17 +3886,20 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
-        <v>100</v>
-      </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
@@ -3796,32 +3916,32 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
       </c>
       <c r="P52" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,8 +4046,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3932,76 +4058,79 @@
         <v>5300</v>
       </c>
       <c r="E54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F54" s="3">
         <v>5800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4200</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>4500</v>
       </c>
       <c r="AA54" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,85 +4188,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>1100</v>
       </c>
       <c r="AA57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4147,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -4156,19 +4290,19 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
@@ -4182,8 +4316,8 @@
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4212,19 +4346,22 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
@@ -4233,25 +4370,25 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>400</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -4263,111 +4400,117 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>600</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
       </c>
       <c r="X59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y59" s="3">
         <v>500</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>400</v>
       </c>
       <c r="Z59" s="3">
         <v>400</v>
       </c>
       <c r="AA59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>700</v>
       </c>
       <c r="L60" s="3">
         <v>700</v>
       </c>
       <c r="M60" s="3">
+        <v>700</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
       </c>
       <c r="R60" s="3">
+        <v>900</v>
+      </c>
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4381,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -4390,16 +4533,16 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
@@ -4443,8 +4586,11 @@
       <c r="AA61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4452,16 +4598,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -4479,7 +4625,7 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -4490,8 +4636,8 @@
       <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>24</v>
+      <c r="R62" s="3">
+        <v>200</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>24</v>
@@ -4502,8 +4648,8 @@
       <c r="U62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4520,8 +4666,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1400</v>
       </c>
       <c r="L66" s="3">
         <v>1400</v>
       </c>
       <c r="M66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1600</v>
       </c>
       <c r="Q66" s="3">
         <v>1600</v>
       </c>
       <c r="R66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>2100</v>
       </c>
       <c r="AA66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,49 +5336,52 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E72" s="3">
         <v>4300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>4200</v>
       </c>
       <c r="J72" s="3">
         <v>4200</v>
       </c>
       <c r="K72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L72" s="3">
         <v>4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3600</v>
       </c>
       <c r="N72" s="3">
         <v>3600</v>
       </c>
       <c r="O72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P72" s="3">
         <v>3400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>3500</v>
       </c>
       <c r="Q72" s="3">
         <v>3500</v>
@@ -5216,34 +5390,37 @@
         <v>3500</v>
       </c>
       <c r="S72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T72" s="3">
         <v>3300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4500</v>
       </c>
       <c r="I76" s="3">
         <v>4500</v>
       </c>
       <c r="J76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>3700</v>
       </c>
       <c r="P76" s="3">
         <v>3700</v>
       </c>
       <c r="Q76" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="R76" s="3">
         <v>3800</v>
       </c>
       <c r="S76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T76" s="3">
         <v>3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,90 +5816,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5718,55 +5913,55 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>200</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>300</v>
@@ -5778,16 +5973,19 @@
         <v>300</v>
       </c>
       <c r="Y81" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>100</v>
-      </c>
       <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5892,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,53 +6491,56 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
@@ -6331,31 +6548,34 @@
         <v>100</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
       <c r="Y89" s="3">
         <v>100</v>
       </c>
       <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6603,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6460,8 +6681,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6841,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6664,8 +6894,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>24</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>24</v>
@@ -6673,8 +6903,8 @@
       <c r="U94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6691,8 +6921,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,8 +7271,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,11 +7285,11 @@
       <c r="E100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>24</v>
@@ -7051,18 +7297,18 @@
       <c r="I100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7105,8 +7351,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
       <c r="Y102" s="3">
         <v>100</v>
       </c>
       <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>TOFB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,153 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3200</v>
       </c>
       <c r="M8" s="3">
         <v>3200</v>
@@ -816,209 +820,218 @@
         <v>3200</v>
       </c>
       <c r="O8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P8" s="3">
         <v>3400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3100</v>
       </c>
       <c r="Q8" s="3">
         <v>3100</v>
       </c>
       <c r="R8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S8" s="3">
         <v>3500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3300</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3600</v>
       </c>
       <c r="AB8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E9" s="3">
         <v>2500</v>
       </c>
       <c r="F9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2200</v>
       </c>
       <c r="N9" s="3">
         <v>2200</v>
       </c>
       <c r="O9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2000</v>
       </c>
       <c r="T9" s="3">
         <v>2000</v>
       </c>
       <c r="U9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V9" s="3">
         <v>2400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2300</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>2500</v>
       </c>
       <c r="AB9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1000</v>
       </c>
       <c r="N10" s="3">
         <v>1000</v>
       </c>
       <c r="O10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1000</v>
       </c>
       <c r="S10" s="3">
         <v>1000</v>
       </c>
       <c r="T10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1000</v>
-      </c>
-      <c r="V10" s="3">
-        <v>1300</v>
       </c>
       <c r="W10" s="3">
         <v>1300</v>
       </c>
       <c r="X10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>1100</v>
       </c>
       <c r="AB10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1060,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1127,8 +1141,11 @@
       <c r="AB12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,8 +1224,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1236,8 +1256,8 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1287,8 +1307,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,8 +1390,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,43 +1420,44 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3000</v>
       </c>
       <c r="J17" s="3">
         <v>3000</v>
       </c>
       <c r="K17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3200</v>
       </c>
       <c r="O17" s="3">
         <v>3200</v>
@@ -1442,120 +1469,126 @@
         <v>3200</v>
       </c>
       <c r="R17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3000</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>3400</v>
       </c>
       <c r="Z17" s="3">
         <v>3400</v>
       </c>
       <c r="AA17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AB17" s="3">
         <v>3500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
         <v>400</v>
       </c>
       <c r="X18" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>100</v>
-      </c>
       <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1584,8 +1617,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1608,11 +1642,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1664,67 +1698,70 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>300</v>
       </c>
       <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>100</v>
-      </c>
       <c r="V21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
         <v>300</v>
@@ -1736,16 +1773,19 @@
         <v>300</v>
       </c>
       <c r="Z21" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
-        <v>100</v>
-      </c>
       <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1824,67 +1864,70 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>200</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>300</v>
@@ -1896,16 +1939,19 @@
         <v>300</v>
       </c>
       <c r="Z23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>100</v>
-      </c>
       <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1916,7 +1962,7 @@
         <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1931,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1955,11 +2001,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1967,11 +2013,11 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -1984,8 +2030,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2064,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>200</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>300</v>
       </c>
       <c r="Y26" s="3">
         <v>300</v>
       </c>
       <c r="Z26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>100</v>
-      </c>
       <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>200</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>300</v>
       </c>
       <c r="Y27" s="3">
         <v>300</v>
       </c>
       <c r="Z27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>100</v>
-      </c>
       <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2304,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2348,8 +2409,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2366,11 +2427,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-200</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2384,8 +2445,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,8 +2611,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2568,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2624,67 +2694,70 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>200</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
         <v>300</v>
@@ -2696,16 +2769,19 @@
         <v>300</v>
       </c>
       <c r="Z33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>100</v>
-      </c>
       <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,67 +2860,70 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>200</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
         <v>300</v>
@@ -2856,101 +2935,107 @@
         <v>300</v>
       </c>
       <c r="Z35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>100</v>
-      </c>
       <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3095,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
+        <v>500</v>
+      </c>
+      <c r="R41" s="3">
         <v>900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>600</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
       </c>
       <c r="T41" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U41" s="3">
         <v>500</v>
       </c>
       <c r="V41" s="3">
+        <v>500</v>
+      </c>
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
       <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3169,108 +3259,114 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1400</v>
       </c>
       <c r="I43" s="3">
         <v>1400</v>
       </c>
       <c r="J43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1600</v>
       </c>
       <c r="M43" s="3">
         <v>1600</v>
       </c>
       <c r="N43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2000</v>
       </c>
       <c r="J44" s="3">
         <v>2000</v>
@@ -3282,55 +3378,58 @@
         <v>2000</v>
       </c>
       <c r="M44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N44" s="3">
         <v>2100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1900</v>
       </c>
       <c r="O44" s="3">
         <v>1900</v>
       </c>
       <c r="P44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1900</v>
-      </c>
-      <c r="U44" s="3">
-        <v>2000</v>
       </c>
       <c r="V44" s="3">
         <v>2000</v>
       </c>
       <c r="W44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X44" s="3">
         <v>1500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>1600</v>
       </c>
       <c r="AB44" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3338,13 +3437,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -3392,7 +3491,7 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
@@ -3409,8 +3508,11 @@
       <c r="AB45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3421,76 +3523,79 @@
         <v>4900</v>
       </c>
       <c r="F46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G46" s="3">
         <v>5400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4200</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>4500</v>
       </c>
       <c r="AB46" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,19 +3674,22 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3590,22 +3698,22 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>400</v>
@@ -3614,19 +3722,19 @@
         <v>400</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3649,8 +3757,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3729,8 +3840,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,20 +4006,23 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
@@ -3919,32 +4039,32 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
+        <v>200</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -3969,8 +4089,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4172,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E54" s="3">
         <v>5300</v>
       </c>
       <c r="F54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G54" s="3">
         <v>5800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4200</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>4500</v>
       </c>
       <c r="AB54" s="3">
         <v>4500</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,88 +4319,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>1100</v>
       </c>
       <c r="AB57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4284,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -4293,19 +4427,19 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>24</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
@@ -4319,8 +4453,8 @@
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4349,22 +4483,25 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
       </c>
       <c r="H59" s="3">
         <v>400</v>
@@ -4373,25 +4510,25 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
+        <v>400</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -4403,114 +4540,120 @@
         <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
-      </c>
-      <c r="W59" s="3">
-        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>600</v>
       </c>
       <c r="Y59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z59" s="3">
         <v>500</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>400</v>
       </c>
       <c r="AA59" s="3">
         <v>400</v>
       </c>
       <c r="AB59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>700</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4527,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
@@ -4536,16 +4679,16 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
+        <v>500</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
@@ -4589,28 +4732,31 @@
       <c r="AB61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -4628,7 +4774,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -4639,8 +4785,8 @@
       <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>24</v>
+      <c r="S62" s="3">
+        <v>200</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>24</v>
@@ -4651,8 +4797,8 @@
       <c r="V62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4669,8 +4815,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4829,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5064,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1400</v>
       </c>
       <c r="M66" s="3">
         <v>1400</v>
       </c>
       <c r="N66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1600</v>
       </c>
       <c r="R66" s="3">
         <v>1600</v>
       </c>
       <c r="S66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1900</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>2100</v>
       </c>
       <c r="AB66" s="3">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,52 +5510,55 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E72" s="3">
         <v>4100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>4200</v>
       </c>
       <c r="K72" s="3">
         <v>4200</v>
       </c>
       <c r="L72" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M72" s="3">
         <v>4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>3600</v>
       </c>
       <c r="O72" s="3">
         <v>3600</v>
       </c>
       <c r="P72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3500</v>
       </c>
       <c r="R72" s="3">
         <v>3500</v>
@@ -5393,34 +5567,37 @@
         <v>3500</v>
       </c>
       <c r="T72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U72" s="3">
         <v>3300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4500</v>
       </c>
       <c r="J76" s="3">
         <v>4500</v>
       </c>
       <c r="K76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L76" s="3">
         <v>4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>3700</v>
       </c>
       <c r="Q76" s="3">
         <v>3700</v>
       </c>
       <c r="R76" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="S76" s="3">
         <v>3800</v>
       </c>
       <c r="T76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U76" s="3">
         <v>3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,152 +6008,158 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>200</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
         <v>300</v>
@@ -5976,16 +6171,19 @@
         <v>300</v>
       </c>
       <c r="Z81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>100</v>
-      </c>
       <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6212,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6094,8 +6293,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,56 +6708,59 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
@@ -6551,31 +6768,34 @@
         <v>100</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>100</v>
-      </c>
       <c r="Z89" s="3">
         <v>100</v>
       </c>
       <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,8 +6824,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6684,8 +6905,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,8 +7071,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6897,8 +7127,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>24</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>24</v>
@@ -6906,8 +7136,8 @@
       <c r="V94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -6924,8 +7154,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7187,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7268,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,8 +7517,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7288,11 +7534,11 @@
       <c r="F100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="3">
         <v>-500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>24</v>
@@ -7300,18 +7546,18 @@
       <c r="J100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7354,8 +7600,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7683,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOFB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,203 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4200</v>
       </c>
       <c r="M8" s="3">
         <v>3200</v>
       </c>
       <c r="N8" s="3">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="O8" s="3">
         <v>3200</v>
       </c>
       <c r="P8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3900</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>3600</v>
       </c>
       <c r="AA8" s="3">
         <v>3300</v>
@@ -862,176 +870,194 @@
         <v>3600</v>
       </c>
       <c r="AC8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AD8" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2500</v>
       </c>
       <c r="J9" s="3">
         <v>2300</v>
       </c>
       <c r="K9" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L9" s="3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M9" s="3">
         <v>2100</v>
       </c>
       <c r="N9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P9" s="3">
         <v>2200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2100</v>
       </c>
       <c r="Q9" s="3">
         <v>2200</v>
       </c>
       <c r="R9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2100</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>2300</v>
       </c>
       <c r="AB9" s="3">
         <v>2500</v>
       </c>
       <c r="AC9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AD9" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F10" s="3">
         <v>500</v>
       </c>
       <c r="G10" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I10" s="3">
         <v>900</v>
       </c>
       <c r="J10" s="3">
+        <v>800</v>
+      </c>
+      <c r="K10" s="3">
+        <v>900</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1200</v>
       </c>
       <c r="M10" s="3">
         <v>1100</v>
       </c>
       <c r="N10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1000</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>800</v>
       </c>
       <c r="V10" s="3">
         <v>1000</v>
       </c>
       <c r="W10" s="3">
+        <v>800</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>1000</v>
       </c>
       <c r="AB10" s="3">
         <v>1100</v>
       </c>
       <c r="AC10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,13 +1087,15 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1094,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1144,8 +1172,14 @@
       <c r="AC12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1227,8 +1261,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,13 +1282,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1259,11 +1299,11 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1310,8 +1350,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1393,8 +1439,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,49 +1473,51 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3300</v>
       </c>
       <c r="G17" s="3">
         <v>3200</v>
       </c>
       <c r="H17" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="I17" s="3">
         <v>3200</v>
       </c>
       <c r="J17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3200</v>
       </c>
       <c r="Q17" s="3">
         <v>3200</v>
@@ -1472,60 +1526,66 @@
         <v>3200</v>
       </c>
       <c r="S17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>3500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>200</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1534,61 +1594,67 @@
         <v>200</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>200</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1618,8 +1684,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1645,14 +1713,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1701,73 +1769,79 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>200</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>300</v>
-      </c>
       <c r="X21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="3">
         <v>300</v>
@@ -1776,16 +1850,22 @@
         <v>300</v>
       </c>
       <c r="AA21" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1867,73 +1947,79 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>200</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
+        <v>200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>300</v>
-      </c>
       <c r="X23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>300</v>
@@ -1942,33 +2028,39 @@
         <v>300</v>
       </c>
       <c r="AA23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1980,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -2004,26 +2096,26 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2033,8 +2125,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2116,8 +2214,14 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2125,82 +2229,88 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>300</v>
-      </c>
       <c r="X26" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
         <v>300</v>
       </c>
       <c r="Z26" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2208,82 +2318,88 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>300</v>
-      </c>
       <c r="X27" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
         <v>300</v>
       </c>
       <c r="Z27" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2365,8 +2481,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2412,11 +2534,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2430,14 +2552,14 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>-200</v>
+      <c r="X29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
+      <c r="Z29" s="3">
+        <v>-200</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2448,8 +2570,14 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2659,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,8 +2748,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2641,13 +2781,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2697,8 +2837,14 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2706,64 +2852,64 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>300</v>
-      </c>
       <c r="X33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
         <v>300</v>
@@ -2772,16 +2918,22 @@
         <v>300</v>
       </c>
       <c r="AA33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,8 +3015,14 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2872,64 +3030,64 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>300</v>
-      </c>
       <c r="X35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
         <v>300</v>
@@ -2938,104 +3096,116 @@
         <v>300</v>
       </c>
       <c r="AA35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3235,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,91 +3268,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>100</v>
       </c>
       <c r="AC41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3262,117 +3442,129 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1300</v>
       </c>
       <c r="I43" s="3">
         <v>1400</v>
       </c>
       <c r="J43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>2100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>2600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F44" s="3">
         <v>2500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2000</v>
       </c>
       <c r="L44" s="3">
         <v>2000</v>
@@ -3381,55 +3573,61 @@
         <v>2000</v>
       </c>
       <c r="N44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P44" s="3">
         <v>2100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2000</v>
-      </c>
-      <c r="X44" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>1700</v>
       </c>
       <c r="Z44" s="3">
         <v>1500</v>
       </c>
       <c r="AA44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC44" s="3">
         <v>2000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>1600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3440,16 +3638,16 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3494,10 +3692,10 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
@@ -3511,91 +3709,103 @@
       <c r="AC45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4900</v>
+        <v>3900</v>
       </c>
       <c r="E46" s="3">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="F46" s="3">
         <v>4900</v>
       </c>
       <c r="G46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I46" s="3">
         <v>5400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>5900</v>
       </c>
       <c r="L46" s="3">
         <v>5600</v>
       </c>
       <c r="M46" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O46" s="3">
         <v>5100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>4100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>4500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3677,8 +3887,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3686,61 +3902,61 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
       <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
+        <v>400</v>
+      </c>
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
-        <v>400</v>
-      </c>
       <c r="P48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>400</v>
       </c>
       <c r="R48" s="3">
+        <v>400</v>
+      </c>
+      <c r="S48" s="3">
+        <v>400</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
-        <v>100</v>
-      </c>
-      <c r="U48" s="3">
-        <v>100</v>
-      </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3760,8 +3976,14 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3843,8 +4065,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4154,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,26 +4243,32 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
@@ -4042,35 +4282,35 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
+        <v>200</v>
+      </c>
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
@@ -4092,8 +4332,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4421,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F54" s="3">
         <v>5500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>5800</v>
       </c>
       <c r="H54" s="3">
         <v>5300</v>
       </c>
       <c r="I54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>4900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>4500</v>
       </c>
       <c r="V54" s="3">
         <v>4900</v>
       </c>
       <c r="W54" s="3">
-        <v>5300</v>
+        <v>4500</v>
       </c>
       <c r="X54" s="3">
         <v>4900</v>
       </c>
       <c r="Y54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>4900</v>
+      </c>
+      <c r="AA54" s="3">
         <v>4700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>4500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4547,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,91 +4580,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>700</v>
       </c>
       <c r="X57" s="3">
         <v>500</v>
       </c>
       <c r="Y57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="Z57" s="3">
         <v>500</v>
       </c>
       <c r="AA57" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC57" s="3">
         <v>900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4421,22 +4689,22 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -4444,8 +4712,8 @@
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
@@ -4456,11 +4724,11 @@
       <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4486,19 +4754,25 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
@@ -4507,34 +4781,34 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
       <c r="K59" s="3">
+        <v>400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
@@ -4543,45 +4817,51 @@
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
@@ -4590,70 +4870,76 @@
         <v>700</v>
       </c>
       <c r="I60" s="3">
+        <v>900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1100</v>
       </c>
       <c r="Y60" s="3">
         <v>1200</v>
       </c>
       <c r="Z60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4673,28 +4959,28 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>600</v>
       </c>
       <c r="O61" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q61" s="3">
         <v>500</v>
@@ -4735,34 +5021,40 @@
       <c r="AC61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4777,10 +5069,10 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
@@ -4788,11 +5080,11 @@
       <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>24</v>
+      <c r="T62" s="3">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
+        <v>200</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>24</v>
@@ -4800,11 +5092,11 @@
       <c r="W62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4818,8 +5110,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5199,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4984,8 +5288,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5377,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1500</v>
       </c>
       <c r="K66" s="3">
         <v>1800</v>
       </c>
       <c r="L66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1600</v>
       </c>
       <c r="Y66" s="3">
         <v>1700</v>
       </c>
       <c r="Z66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5503,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5588,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5677,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5766,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +5855,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F72" s="3">
         <v>3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>4500</v>
       </c>
       <c r="H72" s="3">
         <v>4300</v>
       </c>
       <c r="I72" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J72" s="3">
         <v>4300</v>
       </c>
       <c r="K72" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L72" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M72" s="3">
         <v>4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S72" s="3">
-        <v>3500</v>
       </c>
       <c r="T72" s="3">
         <v>3500</v>
       </c>
       <c r="U72" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="V72" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="W72" s="3">
         <v>3300</v>
       </c>
       <c r="X72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Z72" s="3">
         <v>3000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>2700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>2400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>2100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>2300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +6033,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +6122,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6211,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4800</v>
       </c>
       <c r="H76" s="3">
         <v>4600</v>
       </c>
       <c r="I76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K76" s="3">
         <v>4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>3600</v>
-      </c>
-      <c r="V76" s="3">
-        <v>3700</v>
       </c>
       <c r="W76" s="3">
         <v>3600</v>
       </c>
       <c r="X76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Z76" s="3">
         <v>3200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2600</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>2400</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>2500</v>
       </c>
       <c r="AC76" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,96 +6389,108 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6108,64 +6498,64 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>300</v>
-      </c>
       <c r="X81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
         <v>300</v>
@@ -6174,16 +6564,22 @@
         <v>300</v>
       </c>
       <c r="AA81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,8 +6609,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6296,8 +6694,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6783,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +6872,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +6961,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +7050,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +7139,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
         <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>100</v>
-      </c>
       <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,8 +7265,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6908,8 +7350,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7439,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,8 +7528,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7130,20 +7590,20 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>24</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7157,8 +7617,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,8 +7654,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7271,8 +7739,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +7828,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +7917,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,16 +8006,22 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>24</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>24</v>
@@ -7537,32 +8029,32 @@
       <c r="G100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="3">
-        <v>-500</v>
+      <c r="H100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>24</v>
+      <c r="J100" s="3">
+        <v>-500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="M100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7603,8 +8095,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7686,87 +8184,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
       <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
